--- a/Data/EC/NIT-9003359354.xlsx
+++ b/Data/EC/NIT-9003359354.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D502524C-3AD9-4198-86EB-DE0B587CE9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30767EC4-DA13-421F-B964-70B03CD04C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CF13BC03-CF69-48F8-BE73-FEFC13D3B5E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03483B08-4004-4101-917A-6DFE8E62FF73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047416503</t>
+  </si>
+  <si>
+    <t>MANUEL ANTONIO TORRES AGUILERA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>73151979</t>
+  </si>
+  <si>
+    <t>AYMER JESUS NUÑEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1047383764</t>
+  </si>
+  <si>
+    <t>ANDRES FERNANDO VARGAS AVILA</t>
+  </si>
+  <si>
+    <t>1044910055</t>
+  </si>
+  <si>
+    <t>OSCAR FIGUEROA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1047454805</t>
+  </si>
+  <si>
+    <t>JAIRO ANDRES ORTIZ ALFARO</t>
+  </si>
+  <si>
+    <t>1044927977</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO TOVAR MORALES</t>
+  </si>
+  <si>
+    <t>1047465930</t>
+  </si>
+  <si>
+    <t>SAMIR SANMARTIN PADILLA</t>
+  </si>
+  <si>
+    <t>1048439701</t>
+  </si>
+  <si>
+    <t>EDWIN ANDRES JIMENEZ TORRES</t>
+  </si>
+  <si>
+    <t>1235038756</t>
+  </si>
+  <si>
+    <t>JOSE DOMINGO JARAMILLO MADERA</t>
+  </si>
+  <si>
+    <t>1128047117</t>
+  </si>
+  <si>
+    <t>GUADITH ANTONIO GOMEZ ANAYA</t>
+  </si>
+  <si>
+    <t>73558883</t>
+  </si>
+  <si>
+    <t>WILLIAM RAFAEL OJEDA TORRES</t>
+  </si>
+  <si>
+    <t>3828329</t>
+  </si>
+  <si>
+    <t>PABLO RAFAEL OJEDA TORRES</t>
+  </si>
+  <si>
+    <t>73071769</t>
+  </si>
+  <si>
+    <t>ANIBAL OJEDA TORRES</t>
+  </si>
+  <si>
     <t>1193601523</t>
   </si>
   <si>
     <t>YUNIOR MANUEL BLANCO JULIO</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1047383764</t>
-  </si>
-  <si>
-    <t>ANDRES FERNANDO VARGAS AVILA</t>
+    <t>1048943934</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL MONTIEL GUTIERREZ</t>
+  </si>
+  <si>
+    <t>3928727</t>
+  </si>
+  <si>
+    <t>JOSE RAMON GENES CABRALES</t>
   </si>
   <si>
     <t>1050975871</t>
@@ -86,103 +179,16 @@
     <t>EDINSON ARIZA CANTILLO</t>
   </si>
   <si>
-    <t>73071769</t>
-  </si>
-  <si>
-    <t>ANIBAL OJEDA TORRES</t>
-  </si>
-  <si>
     <t>1003430945</t>
   </si>
   <si>
     <t>LUIS MIGUEL MORALES VIGIA</t>
   </si>
   <si>
-    <t>1047416503</t>
-  </si>
-  <si>
-    <t>MANUEL ANTONIO TORRES AGUILERA</t>
-  </si>
-  <si>
-    <t>1048439701</t>
-  </si>
-  <si>
-    <t>EDWIN ANDRES JIMENEZ TORRES</t>
-  </si>
-  <si>
-    <t>1235038756</t>
-  </si>
-  <si>
-    <t>JOSE DOMINGO JARAMILLO MADERA</t>
-  </si>
-  <si>
-    <t>1047465930</t>
-  </si>
-  <si>
-    <t>SAMIR SANMARTIN PADILLA</t>
-  </si>
-  <si>
-    <t>3828329</t>
-  </si>
-  <si>
-    <t>PABLO RAFAEL OJEDA TORRES</t>
-  </si>
-  <si>
-    <t>3928727</t>
-  </si>
-  <si>
-    <t>JOSE RAMON GENES CABRALES</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1128047117</t>
-  </si>
-  <si>
-    <t>GUADITH ANTONIO GOMEZ ANAYA</t>
-  </si>
-  <si>
-    <t>73151979</t>
-  </si>
-  <si>
-    <t>AYMER JESUS NUÑEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047454805</t>
-  </si>
-  <si>
-    <t>JAIRO ANDRES ORTIZ ALFARO</t>
-  </si>
-  <si>
     <t>8780778</t>
   </si>
   <si>
     <t>EDINSON MARX PEREZ REYES</t>
-  </si>
-  <si>
-    <t>1044910055</t>
-  </si>
-  <si>
-    <t>OSCAR FIGUEROA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1044927977</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO TOVAR MORALES</t>
-  </si>
-  <si>
-    <t>73558883</t>
-  </si>
-  <si>
-    <t>WILLIAM RAFAEL OJEDA TORRES</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -596,7 +602,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32E8DA4-09C0-91FA-D414-FA4230E9197D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E3BD08-7BEA-85CB-C0EA-65BD05F53886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +953,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC6B2AF-0878-4A4A-A1BE-772F2EC781C8}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0CC7DA-C694-4EC2-B764-3F784C6BAAB2}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -959,7 +965,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -972,7 +978,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +1023,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1055,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1252800</v>
+        <v>1299200</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,14 +1071,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1102,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1145,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1162,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
         <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,7 +1203,7 @@
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1214,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1231,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1254,19 +1260,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1277,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1300,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1323,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
@@ -1335,7 +1341,7 @@
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1346,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1369,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1392,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1415,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1438,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1461,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1484,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1513,7 +1519,7 @@
         <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1530,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1559,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1576,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1599,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1622,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1645,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1668,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1691,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1710,56 +1716,79 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="E42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" s="32"/>
       <c r="H48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003359354.xlsx
+++ b/Data/EC/NIT-9003359354.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30767EC4-DA13-421F-B964-70B03CD04C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{093C154C-A18F-40BA-8D66-FD9059819933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03483B08-4004-4101-917A-6DFE8E62FF73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0395256F-680A-4E09-91CE-A8364040C940}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,121 +74,115 @@
     <t>2305</t>
   </si>
   <si>
+    <t>1047383764</t>
+  </si>
+  <si>
+    <t>ANDRES FERNANDO VARGAS AVILA</t>
+  </si>
+  <si>
+    <t>1047465930</t>
+  </si>
+  <si>
+    <t>SAMIR SANMARTIN PADILLA</t>
+  </si>
+  <si>
+    <t>1048439701</t>
+  </si>
+  <si>
+    <t>EDWIN ANDRES JIMENEZ TORRES</t>
+  </si>
+  <si>
+    <t>1235038756</t>
+  </si>
+  <si>
+    <t>JOSE DOMINGO JARAMILLO MADERA</t>
+  </si>
+  <si>
+    <t>3828329</t>
+  </si>
+  <si>
+    <t>PABLO RAFAEL OJEDA TORRES</t>
+  </si>
+  <si>
+    <t>73071769</t>
+  </si>
+  <si>
+    <t>ANIBAL OJEDA TORRES</t>
+  </si>
+  <si>
+    <t>1193601523</t>
+  </si>
+  <si>
+    <t>YUNIOR MANUEL BLANCO JULIO</t>
+  </si>
+  <si>
+    <t>1050975871</t>
+  </si>
+  <si>
+    <t>EDINSON ARIZA CANTILLO</t>
+  </si>
+  <si>
+    <t>1003430945</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL MORALES VIGIA</t>
+  </si>
+  <si>
     <t>73151979</t>
   </si>
   <si>
     <t>AYMER JESUS NUÑEZ MARTINEZ</t>
   </si>
   <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1047454805</t>
+  </si>
+  <si>
+    <t>JAIRO ANDRES ORTIZ ALFARO</t>
+  </si>
+  <si>
+    <t>1128047117</t>
+  </si>
+  <si>
+    <t>GUADITH ANTONIO GOMEZ ANAYA</t>
+  </si>
+  <si>
+    <t>3928727</t>
+  </si>
+  <si>
+    <t>JOSE RAMON GENES CABRALES</t>
+  </si>
+  <si>
+    <t>8780778</t>
+  </si>
+  <si>
+    <t>EDINSON MARX PEREZ REYES</t>
+  </si>
+  <si>
+    <t>1044910055</t>
+  </si>
+  <si>
+    <t>OSCAR FIGUEROA MARTINEZ</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1044927977</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO TOVAR MORALES</t>
+  </si>
+  <si>
+    <t>73558883</t>
+  </si>
+  <si>
+    <t>WILLIAM RAFAEL OJEDA TORRES</t>
+  </si>
+  <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1047383764</t>
-  </si>
-  <si>
-    <t>ANDRES FERNANDO VARGAS AVILA</t>
-  </si>
-  <si>
-    <t>1044910055</t>
-  </si>
-  <si>
-    <t>OSCAR FIGUEROA MARTINEZ</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1047454805</t>
-  </si>
-  <si>
-    <t>JAIRO ANDRES ORTIZ ALFARO</t>
-  </si>
-  <si>
-    <t>1044927977</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO TOVAR MORALES</t>
-  </si>
-  <si>
-    <t>1047465930</t>
-  </si>
-  <si>
-    <t>SAMIR SANMARTIN PADILLA</t>
-  </si>
-  <si>
-    <t>1048439701</t>
-  </si>
-  <si>
-    <t>EDWIN ANDRES JIMENEZ TORRES</t>
-  </si>
-  <si>
-    <t>1235038756</t>
-  </si>
-  <si>
-    <t>JOSE DOMINGO JARAMILLO MADERA</t>
-  </si>
-  <si>
-    <t>1128047117</t>
-  </si>
-  <si>
-    <t>GUADITH ANTONIO GOMEZ ANAYA</t>
-  </si>
-  <si>
-    <t>73558883</t>
-  </si>
-  <si>
-    <t>WILLIAM RAFAEL OJEDA TORRES</t>
-  </si>
-  <si>
-    <t>3828329</t>
-  </si>
-  <si>
-    <t>PABLO RAFAEL OJEDA TORRES</t>
-  </si>
-  <si>
-    <t>73071769</t>
-  </si>
-  <si>
-    <t>ANIBAL OJEDA TORRES</t>
-  </si>
-  <si>
-    <t>1193601523</t>
-  </si>
-  <si>
-    <t>YUNIOR MANUEL BLANCO JULIO</t>
-  </si>
-  <si>
-    <t>1048943934</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL MONTIEL GUTIERREZ</t>
-  </si>
-  <si>
-    <t>3928727</t>
-  </si>
-  <si>
-    <t>JOSE RAMON GENES CABRALES</t>
-  </si>
-  <si>
-    <t>1050975871</t>
-  </si>
-  <si>
-    <t>EDINSON ARIZA CANTILLO</t>
-  </si>
-  <si>
-    <t>1003430945</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL MORALES VIGIA</t>
-  </si>
-  <si>
-    <t>8780778</t>
-  </si>
-  <si>
-    <t>EDINSON MARX PEREZ REYES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -287,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E3BD08-7BEA-85CB-C0EA-65BD05F53886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC50460-562E-6371-65DF-588D06D97BA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,8 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0CC7DA-C694-4EC2-B764-3F784C6BAAB2}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7997F43E-CF91-4452-9E8D-5A46A5D5D9D9}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -965,7 +959,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -978,7 +972,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1023,7 +1017,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1055,12 +1049,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1299200</v>
+        <v>1252800</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1071,14 +1065,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>4</v>
@@ -1108,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1151,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>46400</v>
@@ -1168,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>46400</v>
@@ -1220,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1237,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1260,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1283,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1306,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1329,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
@@ -1341,7 +1335,7 @@
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1352,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1375,13 +1369,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1398,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1421,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1444,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1467,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1490,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1513,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1542,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1565,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1582,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1605,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1628,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1651,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1674,13 +1668,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1697,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1716,79 +1710,56 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G43" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="F42" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C48" s="32"/>
       <c r="H48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
